--- a/abk3semester.xlsx
+++ b/abk3semester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A50B64-1309-4C74-B053-C254E7D8BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C67F15-A61C-4A89-B7FF-AC6AF65D09CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="315" windowWidth="16365" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
   <si>
     <t>ab</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>ERP</t>
-  </si>
-  <si>
-    <t>“ERP Ready” refers to the compliance of a product or system with energy efficiency standards and regulations, typically set by the Energy-Related Products (ERP) directive. It signifies that the product meets the specified energy-saving criteria and is designed to operate in an energy-efficient manner</t>
-  </si>
-  <si>
-    <t>Energy-Related Products</t>
   </si>
   <si>
     <t>wiso</t>
@@ -283,6 +277,21 @@
       </rPr>
       <t>. PTK is unique between a client station and access point. To generate PTK, client device and access point need the following information.</t>
     </r>
+  </si>
+  <si>
+    <t>entreprise resource planning</t>
+  </si>
+  <si>
+    <t>verticale software,  is software used by a company to manage key parts of operations, including accounting and resource management.</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>tco</t>
+  </si>
+  <si>
+    <t>total cost of ownership</t>
   </si>
 </sst>
 </file>
@@ -442,73 +451,6 @@
   <dxfs count="9">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -544,6 +486,63 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -602,6 +601,16 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -616,17 +625,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H20" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:H20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ab" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="means" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="f" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Theme" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="info" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="i" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="link" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ab" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="means" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="f" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Theme" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="info" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="i" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="link" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -931,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>38</v>
@@ -1243,10 +1252,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>53</v>
@@ -1281,7 +1290,7 @@
     </row>
     <row r="15" spans="1:8" ht="28.5">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>57</v>
@@ -1367,12 +1376,12 @@
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="78.75">
+    <row r="19" spans="1:8" ht="47.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>55</v>
@@ -1381,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>38</v>
@@ -1391,10 +1400,10 @@
     </row>
     <row r="20" spans="1:8" ht="28.5">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
@@ -1402,7 +1411,9 @@
       <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>38</v>
       </c>
@@ -1410,14 +1421,18 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="28.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="28.5">
       <c r="A22" s="1"/>

--- a/abk3semester.xlsx
+++ b/abk3semester.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C67F15-A61C-4A89-B7FF-AC6AF65D09CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB1463-28EB-4D02-9F3F-EAFE71AC40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="315" windowWidth="16365" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
   <si>
     <t>ab</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>total cost of ownership</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>arbeitspacket</t>
+  </si>
+  <si>
+    <t>psp</t>
+  </si>
+  <si>
+    <t>projektstrukturplan</t>
   </si>
 </sst>
 </file>
@@ -625,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ab" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="means" dataDxfId="6"/>
@@ -941,7 +953,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1435,24 +1447,32 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="28.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="28.5">
       <c r="A24" s="1"/>

--- a/abk3semester.xlsx
+++ b/abk3semester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\markdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB1463-28EB-4D02-9F3F-EAFE71AC40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661022C6-7176-41A4-87E7-B361FAD669C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="315" windowWidth="16365" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11955" yWindow="4740" windowWidth="16365" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="86">
   <si>
     <t>ab</t>
   </si>
@@ -305,12 +305,24 @@
   <si>
     <t>projektstrukturplan</t>
   </si>
+  <si>
+    <t>spoc</t>
+  </si>
+  <si>
+    <t>cmdb</t>
+  </si>
+  <si>
+    <t>Configuration Management Database</t>
+  </si>
+  <si>
+    <t>single point of contact</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +404,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -413,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,6 +474,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +656,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H23" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:H23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H25" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ab" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="means" dataDxfId="6"/>
@@ -950,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,30 +1494,38 @@
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="28.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="28.5">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1508,7 +1535,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1518,7 +1545,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1528,7 +1555,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1538,7 +1565,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1548,7 +1575,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1558,7 +1585,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1568,7 +1595,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -1578,7 +1605,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1588,7 +1615,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -1598,7 +1625,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1608,7 +1635,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1618,7 +1645,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -1628,7 +1655,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -1638,7 +1665,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -1648,7 +1675,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -1658,7 +1685,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -1668,7 +1695,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -1678,7 +1705,7 @@
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -1688,7 +1715,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -1698,7 +1725,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -1708,7 +1735,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -1718,7 +1745,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="5"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -1728,7 +1755,7 @@
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -1738,7 +1765,7 @@
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="5"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -1748,21 +1775,14 @@
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" ht="28.5">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
+    <row r="52" spans="1:8">
       <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
       <c r="E53" s="5"/>
@@ -1787,9 +1807,6 @@
     </row>
     <row r="60" spans="1:8">
       <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="E61" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
